--- a/EC/Train Runs and Enforcements 2016-07-11.xlsx
+++ b/EC/Train Runs and Enforcements 2016-07-11.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Train Runs" sheetId="1" r:id="rId1"/>
@@ -3134,8 +3134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CM163"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3551,6 +3551,10 @@
       <c r="N11" s="118"/>
       <c r="O11" s="118"/>
       <c r="P11" s="118"/>
+      <c r="S11" s="26">
+        <f>AVERAGE(S13:S999)</f>
+        <v>0.99131944444444442</v>
+      </c>
     </row>
     <row r="12" spans="1:91" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
@@ -20666,7 +20670,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:V66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
